--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/本年应交增值税.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/本年应交增值税.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>73.56626</v>
-      </c>
-      <c r="C2" t="n">
-        <v>202.49918</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.88548</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="F2" t="n">
-        <v>27.2656</v>
-      </c>
-      <c r="G2" t="n">
-        <v>213.78365</v>
-      </c>
-      <c r="H2" t="n">
-        <v>42.16344</v>
-      </c>
-      <c r="I2" t="n">
-        <v>115.43078</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.01807</v>
-      </c>
-      <c r="K2" t="n">
-        <v>50.46167</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9.89364</v>
-      </c>
-      <c r="M2" t="n">
-        <v>13.04897</v>
-      </c>
-      <c r="N2" t="n">
-        <v>122.96311</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82.30898999999999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>12.90383</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>55.11492</v>
-      </c>
-      <c r="R2" t="n">
-        <v>20.82874</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.61329</v>
-      </c>
-      <c r="T2" t="n">
-        <v>26.97472</v>
-      </c>
-      <c r="U2" t="n">
-        <v>143.9546</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6.81727</v>
-      </c>
-      <c r="W2" t="n">
-        <v>98.10563999999999</v>
-      </c>
-      <c r="X2" t="n">
-        <v>532.18899</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>179.68578</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>156.38859</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>26.39584</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>118.36606</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>297.40804</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>158.41324</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>18.44332</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>3685.2</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>62.91215</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>68.4966</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>172.57891</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>16.43182</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>64.34311</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>70.25194999999999</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>108.05921</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>247.76176</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>7.08548</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>80.67655999999999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>235.70287</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.48519</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.21098</v>
-      </c>
-      <c r="F3" t="n">
-        <v>31.95668</v>
-      </c>
-      <c r="G3" t="n">
-        <v>238.81273</v>
-      </c>
-      <c r="H3" t="n">
-        <v>30.82566</v>
-      </c>
-      <c r="I3" t="n">
-        <v>132.71708</v>
-      </c>
-      <c r="J3" t="n">
-        <v>36.57735</v>
-      </c>
-      <c r="K3" t="n">
-        <v>60.46194</v>
-      </c>
-      <c r="L3" t="n">
-        <v>11.61209</v>
-      </c>
-      <c r="M3" t="n">
-        <v>15.87351</v>
-      </c>
-      <c r="N3" t="n">
-        <v>133.98835</v>
-      </c>
-      <c r="O3" t="n">
-        <v>82.41518000000001</v>
-      </c>
-      <c r="P3" t="n">
-        <v>12.12147</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>66.47336</v>
-      </c>
-      <c r="R3" t="n">
-        <v>21.799</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.08569</v>
-      </c>
-      <c r="T3" t="n">
-        <v>30.84218</v>
-      </c>
-      <c r="U3" t="n">
-        <v>177.01979</v>
-      </c>
-      <c r="V3" t="n">
-        <v>8.22809</v>
-      </c>
-      <c r="W3" t="n">
-        <v>122.73664</v>
-      </c>
-      <c r="X3" t="n">
-        <v>568.7959499999999</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>217.93622</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>172.82487</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>36.16503</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>150.39041</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>242.85826</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>164.32875</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19.14571</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>4018.09</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>71.74298</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>81.42777</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>178.60827</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17.17117</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>71.30834</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>74.88889</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>108.81167</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>271.11282</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8.47424</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>94.51797000000001</v>
-      </c>
-      <c r="C4" t="n">
-        <v>306.58902</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.94504</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.10217</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29.83519</v>
-      </c>
-      <c r="G4" t="n">
-        <v>268.335</v>
-      </c>
-      <c r="H4" t="n">
-        <v>32.01868</v>
-      </c>
-      <c r="I4" t="n">
-        <v>150.14848</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40.06848</v>
-      </c>
-      <c r="K4" t="n">
-        <v>70.0415</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12.54379</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15.2795</v>
-      </c>
-      <c r="N4" t="n">
-        <v>158.44344</v>
-      </c>
-      <c r="O4" t="n">
-        <v>83.49808</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13.57489</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>70.64828</v>
-      </c>
-      <c r="R4" t="n">
-        <v>22.81881</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.63783</v>
-      </c>
-      <c r="T4" t="n">
-        <v>33.59336</v>
-      </c>
-      <c r="U4" t="n">
-        <v>211.16086</v>
-      </c>
-      <c r="V4" t="n">
-        <v>9.328110000000001</v>
-      </c>
-      <c r="W4" t="n">
-        <v>148.91764</v>
-      </c>
-      <c r="X4" t="n">
-        <v>658.21105</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>193.90655</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>183.70054</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>36.2686</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>171.96335</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>226.37615</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>170.23249</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19.62867</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>4476.01</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>85.54855000000001</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>89.03979</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>202.86146</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>18.3716</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>77.41902</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>74.99252</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>118.66157</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>332.4698</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10.62462</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
